--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Slit2-App.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Slit2-App.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>App</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H2">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I2">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J2">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="N2">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="O2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="P2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="Q2">
-        <v>2.103147170278999</v>
+        <v>7.041955983411555</v>
       </c>
       <c r="R2">
-        <v>2.103147170278999</v>
+        <v>63.37760385070401</v>
       </c>
       <c r="S2">
-        <v>0.001691770277478324</v>
+        <v>0.004860983855506447</v>
       </c>
       <c r="T2">
-        <v>0.001691770277478324</v>
+        <v>0.004860983855506446</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H3">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I3">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J3">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="N3">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="O3">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="P3">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="Q3">
-        <v>2.411255091886757</v>
+        <v>6.490160291194669</v>
       </c>
       <c r="R3">
-        <v>2.411255091886757</v>
+        <v>58.41144262075201</v>
       </c>
       <c r="S3">
-        <v>0.001939612098249467</v>
+        <v>0.004480085429313098</v>
       </c>
       <c r="T3">
-        <v>0.001939612098249467</v>
+        <v>0.004480085429313098</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H4">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I4">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J4">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="N4">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="O4">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="P4">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="Q4">
-        <v>2.114747417101448</v>
+        <v>6.575248689013333</v>
       </c>
       <c r="R4">
-        <v>2.114747417101448</v>
+        <v>59.17723820112</v>
       </c>
       <c r="S4">
-        <v>0.001701101508817226</v>
+        <v>0.004538821003500408</v>
       </c>
       <c r="T4">
-        <v>0.001701101508817226</v>
+        <v>0.004538821003500407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H5">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I5">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J5">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="N5">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="O5">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="P5">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="Q5">
-        <v>1.881303116614855</v>
+        <v>5.031477811984001</v>
       </c>
       <c r="R5">
-        <v>1.881303116614855</v>
+        <v>45.28330030785601</v>
       </c>
       <c r="S5">
-        <v>0.001513319058501328</v>
+        <v>0.00347317314550214</v>
       </c>
       <c r="T5">
-        <v>0.001513319058501328</v>
+        <v>0.003473173145502139</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H6">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I6">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J6">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="N6">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="O6">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="P6">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="Q6">
-        <v>1.983662536918086</v>
+        <v>5.359141828640889</v>
       </c>
       <c r="R6">
-        <v>1.983662536918086</v>
+        <v>48.232276457768</v>
       </c>
       <c r="S6">
-        <v>0.001595656912616381</v>
+        <v>0.003699355970096834</v>
       </c>
       <c r="T6">
-        <v>0.001595656912616381</v>
+        <v>0.003699355970096833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H7">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I7">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J7">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="N7">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="O7">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="P7">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="Q7">
-        <v>1.084544777672309</v>
+        <v>3.255998821330667</v>
       </c>
       <c r="R7">
-        <v>1.084544777672309</v>
+        <v>29.303989391976</v>
       </c>
       <c r="S7">
-        <v>0.000872407145533685</v>
+        <v>0.002247579755016964</v>
       </c>
       <c r="T7">
-        <v>0.000872407145533685</v>
+        <v>0.002247579755016964</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.44618154757366</v>
+        <v>2.538883</v>
       </c>
       <c r="H8">
-        <v>2.44618154757366</v>
+        <v>7.616649</v>
       </c>
       <c r="I8">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J8">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="N8">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="O8">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="P8">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="Q8">
-        <v>184.9752620688545</v>
+        <v>242.0139831385393</v>
       </c>
       <c r="R8">
-        <v>184.9752620688545</v>
+        <v>2178.125848246854</v>
       </c>
       <c r="S8">
-        <v>0.1487939859174659</v>
+        <v>0.1670595595335312</v>
       </c>
       <c r="T8">
-        <v>0.1487939859174659</v>
+        <v>0.1670595595335312</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.44618154757366</v>
+        <v>2.538883</v>
       </c>
       <c r="H9">
-        <v>2.44618154757366</v>
+        <v>7.616649</v>
       </c>
       <c r="I9">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J9">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="N9">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="O9">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="P9">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="Q9">
-        <v>212.0738618959529</v>
+        <v>223.050179095078</v>
       </c>
       <c r="R9">
-        <v>212.0738618959529</v>
+        <v>2007.451611855702</v>
       </c>
       <c r="S9">
-        <v>0.1705920827870647</v>
+        <v>0.1539690566233448</v>
       </c>
       <c r="T9">
-        <v>0.1705920827870647</v>
+        <v>0.1539690566233448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.44618154757366</v>
+        <v>2.538883</v>
       </c>
       <c r="H10">
-        <v>2.44618154757366</v>
+        <v>7.616649</v>
       </c>
       <c r="I10">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J10">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="N10">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="O10">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="P10">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="Q10">
-        <v>185.9955229076436</v>
+        <v>225.9744493011799</v>
       </c>
       <c r="R10">
-        <v>185.9955229076436</v>
+        <v>2033.77004371062</v>
       </c>
       <c r="S10">
-        <v>0.1496146831024896</v>
+        <v>0.155987647806602</v>
       </c>
       <c r="T10">
-        <v>0.1496146831024896</v>
+        <v>0.155987647806602</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.44618154757366</v>
+        <v>2.538883</v>
       </c>
       <c r="H11">
-        <v>2.44618154757366</v>
+        <v>7.616649</v>
       </c>
       <c r="I11">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J11">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="N11">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="O11">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="P11">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="Q11">
-        <v>165.4637116909993</v>
+        <v>172.918999951134</v>
       </c>
       <c r="R11">
-        <v>165.4637116909993</v>
+        <v>1556.270999560206</v>
       </c>
       <c r="S11">
-        <v>0.1330989069124158</v>
+        <v>0.1193640614983744</v>
       </c>
       <c r="T11">
-        <v>0.1330989069124158</v>
+        <v>0.1193640614983744</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.44618154757366</v>
+        <v>2.538883</v>
       </c>
       <c r="H12">
-        <v>2.44618154757366</v>
+        <v>7.616649</v>
       </c>
       <c r="I12">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J12">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="N12">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="O12">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="P12">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="Q12">
-        <v>174.4663915145394</v>
+        <v>184.1799726111603</v>
       </c>
       <c r="R12">
-        <v>174.4663915145394</v>
+        <v>1657.619753500443</v>
       </c>
       <c r="S12">
-        <v>0.1403406569707812</v>
+        <v>0.1271373856183539</v>
       </c>
       <c r="T12">
-        <v>0.1403406569707812</v>
+        <v>0.1271373856183539</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.44618154757366</v>
+        <v>2.538883</v>
       </c>
       <c r="H13">
-        <v>2.44618154757366</v>
+        <v>7.616649</v>
       </c>
       <c r="I13">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J13">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="N13">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="O13">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="P13">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="Q13">
-        <v>95.38750179272036</v>
+        <v>111.900336454939</v>
       </c>
       <c r="R13">
-        <v>95.38750179272036</v>
+        <v>1007.103028094451</v>
       </c>
       <c r="S13">
-        <v>0.07672964719555367</v>
+        <v>0.07724355707626522</v>
       </c>
       <c r="T13">
-        <v>0.07672964719555367</v>
+        <v>0.07724355707626521</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5121766049172271</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H14">
-        <v>0.5121766049172271</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I14">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="J14">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="N14">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="O14">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="P14">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="Q14">
-        <v>38.72975078815052</v>
+        <v>0.002383075383333333</v>
       </c>
       <c r="R14">
-        <v>38.72975078815052</v>
+        <v>0.02144767845</v>
       </c>
       <c r="S14">
-        <v>0.03115418747839874</v>
+        <v>1.645010419282133E-06</v>
       </c>
       <c r="T14">
-        <v>0.03115418747839874</v>
+        <v>1.645010419282133E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5121766049172271</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H15">
-        <v>0.5121766049172271</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I15">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="J15">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="N15">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="O15">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="P15">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="Q15">
-        <v>44.40360147646943</v>
+        <v>0.00219634165</v>
       </c>
       <c r="R15">
-        <v>44.40360147646943</v>
+        <v>0.01976707485</v>
       </c>
       <c r="S15">
-        <v>0.0357182294479745</v>
+        <v>1.516110201054409E-06</v>
       </c>
       <c r="T15">
-        <v>0.0357182294479745</v>
+        <v>1.516110201054409E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5121766049172271</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H16">
-        <v>0.5121766049172271</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I16">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="J16">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="N16">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="O16">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="P16">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="Q16">
-        <v>38.9433709640771</v>
+        <v>0.002225136499999999</v>
       </c>
       <c r="R16">
-        <v>38.9433709640771</v>
+        <v>0.0200262285</v>
       </c>
       <c r="S16">
-        <v>0.0313260234152316</v>
+        <v>1.535986965592763E-06</v>
       </c>
       <c r="T16">
-        <v>0.0313260234152316</v>
+        <v>1.535986965592763E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.5121766049172271</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H17">
-        <v>0.5121766049172271</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I17">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="J17">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="N17">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="O17">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="P17">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="Q17">
-        <v>34.64446135445596</v>
+        <v>0.00170270745</v>
       </c>
       <c r="R17">
-        <v>34.64446135445596</v>
+        <v>0.01532436705</v>
       </c>
       <c r="S17">
-        <v>0.0278679831953652</v>
+        <v>1.175360005742431E-06</v>
       </c>
       <c r="T17">
-        <v>0.0278679831953652</v>
+        <v>1.17536000574243E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.5121766049172271</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H18">
-        <v>0.5121766049172271</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I18">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="J18">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="N18">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="O18">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="P18">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="Q18">
-        <v>36.52942446839619</v>
+        <v>0.001813592558333333</v>
       </c>
       <c r="R18">
-        <v>36.52942446839619</v>
+        <v>0.016322333025</v>
       </c>
       <c r="S18">
-        <v>0.02938424635344179</v>
+        <v>1.251902762143371E-06</v>
       </c>
       <c r="T18">
-        <v>0.02938424635344179</v>
+        <v>1.251902762143371E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H19">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I19">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="J19">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>44.074633</v>
+      </c>
+      <c r="N19">
+        <v>132.223899</v>
+      </c>
+      <c r="O19">
+        <v>0.09646265391194166</v>
+      </c>
+      <c r="P19">
+        <v>0.09646265391194163</v>
+      </c>
+      <c r="Q19">
+        <v>0.001101865825</v>
+      </c>
+      <c r="R19">
+        <v>0.009916792424999998</v>
+      </c>
+      <c r="S19">
+        <v>7.606057179108414E-07</v>
+      </c>
+      <c r="T19">
+        <v>7.606057179108412E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.557804</v>
+      </c>
+      <c r="H20">
+        <v>1.673412</v>
+      </c>
+      <c r="I20">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J20">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>95.32301533333333</v>
+      </c>
+      <c r="N20">
+        <v>285.969046</v>
+      </c>
+      <c r="O20">
+        <v>0.2086259240761469</v>
+      </c>
+      <c r="P20">
+        <v>0.2086259240761469</v>
+      </c>
+      <c r="Q20">
+        <v>53.17155924499466</v>
+      </c>
+      <c r="R20">
+        <v>478.544033204952</v>
+      </c>
+      <c r="S20">
+        <v>0.03670373567669004</v>
+      </c>
+      <c r="T20">
+        <v>0.03670373567669003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.557804</v>
+      </c>
+      <c r="H21">
+        <v>1.673412</v>
+      </c>
+      <c r="I21">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J21">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>87.85366600000002</v>
+      </c>
+      <c r="N21">
+        <v>263.560998</v>
+      </c>
+      <c r="O21">
+        <v>0.1922783515464171</v>
+      </c>
+      <c r="P21">
+        <v>0.1922783515464171</v>
+      </c>
+      <c r="Q21">
+        <v>49.00512630946401</v>
+      </c>
+      <c r="R21">
+        <v>441.046136785176</v>
+      </c>
+      <c r="S21">
+        <v>0.03382769338355814</v>
+      </c>
+      <c r="T21">
+        <v>0.03382769338355814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.5121766049172271</v>
-      </c>
-      <c r="H19">
-        <v>0.5121766049172271</v>
-      </c>
-      <c r="I19">
-        <v>0.1715161701130326</v>
-      </c>
-      <c r="J19">
-        <v>0.1715161701130326</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>38.9944490781292</v>
-      </c>
-      <c r="N19">
-        <v>38.9944490781292</v>
-      </c>
-      <c r="O19">
-        <v>0.09366755456370807</v>
-      </c>
-      <c r="P19">
-        <v>0.09366755456370807</v>
-      </c>
-      <c r="Q19">
-        <v>19.97204453945391</v>
-      </c>
-      <c r="R19">
-        <v>19.97204453945391</v>
-      </c>
-      <c r="S19">
-        <v>0.01606550022262071</v>
-      </c>
-      <c r="T19">
-        <v>0.01606550022262071</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.557804</v>
+      </c>
+      <c r="H22">
+        <v>1.673412</v>
+      </c>
+      <c r="I22">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J22">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>89.00545999999999</v>
+      </c>
+      <c r="N22">
+        <v>267.01638</v>
+      </c>
+      <c r="O22">
+        <v>0.1947991917312883</v>
+      </c>
+      <c r="P22">
+        <v>0.1947991917312882</v>
+      </c>
+      <c r="Q22">
+        <v>49.64760160983999</v>
+      </c>
+      <c r="R22">
+        <v>446.8284144885599</v>
+      </c>
+      <c r="S22">
+        <v>0.03427118693422022</v>
+      </c>
+      <c r="T22">
+        <v>0.03427118693422022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.557804</v>
+      </c>
+      <c r="H23">
+        <v>1.673412</v>
+      </c>
+      <c r="I23">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J23">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>68.108298</v>
+      </c>
+      <c r="N23">
+        <v>204.324894</v>
+      </c>
+      <c r="O23">
+        <v>0.1490632305096083</v>
+      </c>
+      <c r="P23">
+        <v>0.1490632305096083</v>
+      </c>
+      <c r="Q23">
+        <v>37.991081057592</v>
+      </c>
+      <c r="R23">
+        <v>341.919729518328</v>
+      </c>
+      <c r="S23">
+        <v>0.02622482050572603</v>
+      </c>
+      <c r="T23">
+        <v>0.02622482050572603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.557804</v>
+      </c>
+      <c r="H24">
+        <v>1.673412</v>
+      </c>
+      <c r="I24">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J24">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>72.54370233333333</v>
+      </c>
+      <c r="N24">
+        <v>217.631107</v>
+      </c>
+      <c r="O24">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="P24">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="Q24">
+        <v>40.46516733634266</v>
+      </c>
+      <c r="R24">
+        <v>364.186506027084</v>
+      </c>
+      <c r="S24">
+        <v>0.02793265473338484</v>
+      </c>
+      <c r="T24">
+        <v>0.02793265473338483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.557804</v>
+      </c>
+      <c r="H25">
+        <v>1.673412</v>
+      </c>
+      <c r="I25">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J25">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>44.074633</v>
+      </c>
+      <c r="N25">
+        <v>132.223899</v>
+      </c>
+      <c r="O25">
+        <v>0.09646265391194166</v>
+      </c>
+      <c r="P25">
+        <v>0.09646265391194163</v>
+      </c>
+      <c r="Q25">
+        <v>24.585006585932</v>
+      </c>
+      <c r="R25">
+        <v>221.265059273388</v>
+      </c>
+      <c r="S25">
+        <v>0.01697075647494156</v>
+      </c>
+      <c r="T25">
+        <v>0.01697075647494155</v>
       </c>
     </row>
   </sheetData>
